--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.44</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>007850</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>方正富邦天睿灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.70</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.27</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>88.81</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>91.61</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>007851</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>方正富邦天睿灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007850</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>方正富邦天睿灵活配置混合A</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007851</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>方正富邦天睿灵活配置混合C</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006881</t>
+          <t>515860</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝大健康混合</t>
+          <t>嘉实中证新兴科技100策略ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.74</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>006881</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>华宝大健康混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515860</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,1540 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2776,4 +2777,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3745,4 +3746,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3754,7 +3755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3765,17 +3766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3785,14 +3806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.89</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3801,14 +3844,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.11</v>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3817,14 +3882,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3833,13 +3920,1861 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0634</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5673,7 +5674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5684,17 +5685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5704,14 +5725,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.77</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5720,14 +5763,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.89</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4727</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5736,14 +5801,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.11</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5752,14 +5839,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5768,13 +5877,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6224,7 +6225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,17 +6236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6255,14 +6276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.08</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6271,14 +6314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.77</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6287,14 +6352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.89</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6530</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6303,14 +6390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.11</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6319,14 +6428,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -6335,13 +6466,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>7.94</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>15.08</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>15.77</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>5.89</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>5.11</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -600,6 +617,1882 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,7 +3668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3693,7 +5586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4661,7 +6554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6197,7 +8090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6405,7 +8298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002223-鱼跃医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>13.91</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>7.94</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>15.08</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>15.77</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>5.89</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>5.11</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -616,7 +633,2779 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016257</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013701</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商稳锦混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013702</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商稳锦混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2492,7 +5281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3118,7 +5907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3668,7 +6457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5586,7 +8375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6554,7 +9343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8090,7 +10879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8296,592 +11085,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1597</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007850</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦天睿灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0443</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501008</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007851</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>方正富邦天睿灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>